--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.302</v>
+        <v>-21.183</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.148999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.746</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.359</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.068</v>
+        <v>-20.959</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.440000000000001</v>
+        <v>-7.897</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.416</v>
+        <v>-21.368</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.414</v>
+        <v>-21.937</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
